--- a/biology/Histoire de la zoologie et de la botanique/Elmer_Ottis_Wooton/Elmer_Ottis_Wooton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Elmer_Ottis_Wooton/Elmer_Ottis_Wooton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elmer Ottis Wooton est un botaniste américain, né le 19 septembre 1865 à Kokomo, Indiana et mort le 20 novembre 1945.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment l’auteur avec Paul Carpenter Standley (1884-1963) de Descriptions of new plants preliminary to a report upon the flora of New Mexico (1913) et de Flora of New Mexico (1915). Wooton enseigne les sciences à l’école d’agriculture du Nouveau-Mexique à Las Cruces.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>John Hendley Barnhart (1965). Biographical Notes upon Botanists. G.K. Hall &amp; Co. (Boston).</t>
         </is>
